--- a/example2_cor.xlsx
+++ b/example2_cor.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6945" uniqueCount="3570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7408" uniqueCount="3808">
   <si>
     <t>label</t>
   </si>
@@ -10727,6 +10727,720 @@
   </si>
   <si>
     <t>x15N_Arg_si</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>N15-label-1</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13N15-label-1-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-3-1</t>
+  </si>
+  <si>
+    <t>N15-label-1</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>C13N15-label-1-1</t>
+  </si>
+  <si>
+    <t>N15-label-1</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>N15-label-1</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-5</t>
+  </si>
+  <si>
+    <t>C13N15-label-1-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-4-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-5-1</t>
+  </si>
+  <si>
+    <t>N15-label-1</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>glycine</t>
+  </si>
+  <si>
+    <t>alanine</t>
+  </si>
+  <si>
+    <t>4-aminobutyrate</t>
+  </si>
+  <si>
+    <t>serine</t>
+  </si>
+  <si>
+    <t>proline</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>glycine</t>
+  </si>
+  <si>
+    <t>alanine</t>
+  </si>
+  <si>
+    <t>4-aminobutyrate</t>
+  </si>
+  <si>
+    <t>serine</t>
+  </si>
+  <si>
+    <t>proline</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C2H5NO2</t>
+  </si>
+  <si>
+    <t>C3H7NO2</t>
+  </si>
+  <si>
+    <t>C4H9NO2</t>
+  </si>
+  <si>
+    <t>C3H7NO3</t>
+  </si>
+  <si>
+    <t>C5H9NO2</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>15N-Arg-serum-3h</t>
+  </si>
+  <si>
+    <t>15N-Arg-serum-4h</t>
+  </si>
+  <si>
+    <t>15N-Arg-bat</t>
+  </si>
+  <si>
+    <t>15N-Arg-brain</t>
+  </si>
+  <si>
+    <t>15N-Arg-cecal</t>
+  </si>
+  <si>
+    <t>15N-Arg-co</t>
+  </si>
+  <si>
+    <t>15N-Arg-gwat</t>
+  </si>
+  <si>
+    <t>15N-Arg-liver</t>
+  </si>
+  <si>
+    <t>15N-Arg-Lung</t>
+  </si>
+  <si>
+    <t>15N-Arg-pc</t>
+  </si>
+  <si>
+    <t>15N-Arg-Q</t>
+  </si>
+  <si>
+    <t>15N-Arg-si</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>N15-label-1</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13N15-label-1-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-3-1</t>
+  </si>
+  <si>
+    <t>N15-label-1</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>C13N15-label-1-1</t>
+  </si>
+  <si>
+    <t>N15-label-1</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>N15-label-1</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-5</t>
+  </si>
+  <si>
+    <t>C13N15-label-1-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-4-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-5-1</t>
+  </si>
+  <si>
+    <t>N15-label-1</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>glycine</t>
+  </si>
+  <si>
+    <t>alanine</t>
+  </si>
+  <si>
+    <t>4-aminobutyrate</t>
+  </si>
+  <si>
+    <t>serine</t>
+  </si>
+  <si>
+    <t>proline</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>glycine</t>
+  </si>
+  <si>
+    <t>alanine</t>
+  </si>
+  <si>
+    <t>4-aminobutyrate</t>
+  </si>
+  <si>
+    <t>serine</t>
+  </si>
+  <si>
+    <t>proline</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C2H5NO2</t>
+  </si>
+  <si>
+    <t>C3H7NO2</t>
+  </si>
+  <si>
+    <t>C4H9NO2</t>
+  </si>
+  <si>
+    <t>C3H7NO3</t>
+  </si>
+  <si>
+    <t>C5H9NO2</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>15N-Arg-serum-3h</t>
+  </si>
+  <si>
+    <t>15N-Arg-serum-4h</t>
+  </si>
+  <si>
+    <t>15N-Arg-bat</t>
+  </si>
+  <si>
+    <t>15N-Arg-brain</t>
+  </si>
+  <si>
+    <t>15N-Arg-cecal</t>
+  </si>
+  <si>
+    <t>15N-Arg-co</t>
+  </si>
+  <si>
+    <t>15N-Arg-gwat</t>
+  </si>
+  <si>
+    <t>15N-Arg-liver</t>
+  </si>
+  <si>
+    <t>15N-Arg-Lung</t>
+  </si>
+  <si>
+    <t>15N-Arg-pc</t>
+  </si>
+  <si>
+    <t>15N-Arg-Q</t>
+  </si>
+  <si>
+    <t>15N-Arg-si</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>N15-label-1</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13N15-label-1-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-3-1</t>
+  </si>
+  <si>
+    <t>N15-label-1</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>C13N15-label-1-1</t>
+  </si>
+  <si>
+    <t>N15-label-1</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>N15-label-1</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-5</t>
+  </si>
+  <si>
+    <t>C13N15-label-1-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-4-1</t>
+  </si>
+  <si>
+    <t>C13N15-label-5-1</t>
+  </si>
+  <si>
+    <t>N15-label-1</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>glycine</t>
+  </si>
+  <si>
+    <t>alanine</t>
+  </si>
+  <si>
+    <t>4-aminobutyrate</t>
+  </si>
+  <si>
+    <t>serine</t>
+  </si>
+  <si>
+    <t>proline</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>glycine</t>
+  </si>
+  <si>
+    <t>alanine</t>
+  </si>
+  <si>
+    <t>4-aminobutyrate</t>
+  </si>
+  <si>
+    <t>serine</t>
+  </si>
+  <si>
+    <t>proline</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C2H5NO2</t>
+  </si>
+  <si>
+    <t>C3H7NO2</t>
+  </si>
+  <si>
+    <t>C4H9NO2</t>
+  </si>
+  <si>
+    <t>C3H7NO3</t>
+  </si>
+  <si>
+    <t>C5H9NO2</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>15N-Arg-serum-3h</t>
+  </si>
+  <si>
+    <t>15N-Arg-serum-4h</t>
+  </si>
+  <si>
+    <t>15N-Arg-bat</t>
+  </si>
+  <si>
+    <t>15N-Arg-brain</t>
+  </si>
+  <si>
+    <t>15N-Arg-cecal</t>
+  </si>
+  <si>
+    <t>15N-Arg-co</t>
+  </si>
+  <si>
+    <t>15N-Arg-gwat</t>
+  </si>
+  <si>
+    <t>15N-Arg-liver</t>
+  </si>
+  <si>
+    <t>15N-Arg-Lung</t>
+  </si>
+  <si>
+    <t>15N-Arg-pc</t>
+  </si>
+  <si>
+    <t>15N-Arg-Q</t>
+  </si>
+  <si>
+    <t>15N-Arg-si</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>glycine</t>
+  </si>
+  <si>
+    <t>alanine</t>
+  </si>
+  <si>
+    <t>4-aminobutyrate</t>
+  </si>
+  <si>
+    <t>serine</t>
+  </si>
+  <si>
+    <t>proline</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C2H5NO2</t>
+  </si>
+  <si>
+    <t>C3H7NO2</t>
+  </si>
+  <si>
+    <t>C4H9NO2</t>
+  </si>
+  <si>
+    <t>C3H7NO3</t>
+  </si>
+  <si>
+    <t>C5H9NO2</t>
+  </si>
+  <si>
+    <t>15N-Arg-serum-3h</t>
+  </si>
+  <si>
+    <t>15N-Arg-serum-4h</t>
+  </si>
+  <si>
+    <t>15N-Arg-bat</t>
+  </si>
+  <si>
+    <t>15N-Arg-brain</t>
+  </si>
+  <si>
+    <t>15N-Arg-cecal</t>
+  </si>
+  <si>
+    <t>15N-Arg-co</t>
+  </si>
+  <si>
+    <t>15N-Arg-gwat</t>
+  </si>
+  <si>
+    <t>15N-Arg-liver</t>
+  </si>
+  <si>
+    <t>15N-Arg-Lung</t>
+  </si>
+  <si>
+    <t>15N-Arg-pc</t>
+  </si>
+  <si>
+    <t>15N-Arg-Q</t>
+  </si>
+  <si>
+    <t>15N-Arg-si</t>
   </si>
 </sst>
 </file>
@@ -10775,112 +11489,112 @@
   <dimension ref="A1:Z31"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.046875" customWidth="true"/>
-    <col min="2" max="2" width="11.93359375" customWidth="true"/>
-    <col min="3" max="3" width="7.37890625" customWidth="true"/>
-    <col min="4" max="4" width="14.046875" customWidth="true"/>
+    <col min="1" max="1" width="5.5703125" customWidth="true"/>
+    <col min="2" max="2" width="12.85546875" customWidth="true"/>
+    <col min="3" max="3" width="8" customWidth="true"/>
+    <col min="4" max="4" width="15.140625" customWidth="true"/>
     <col min="5" max="5" width="10.7109375" customWidth="true"/>
-    <col min="6" max="6" width="6.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.37890625" customWidth="true"/>
-    <col min="8" max="8" width="15.48828125" customWidth="true"/>
-    <col min="9" max="9" width="14.82421875" customWidth="true"/>
-    <col min="10" max="10" width="14.82421875" customWidth="true"/>
-    <col min="11" max="11" width="9.15625" customWidth="true"/>
-    <col min="12" max="12" width="13.37890625" customWidth="true"/>
+    <col min="6" max="6" width="7" customWidth="true"/>
+    <col min="7" max="7" width="11.28515625" customWidth="true"/>
+    <col min="8" max="8" width="16.28515625" customWidth="true"/>
+    <col min="9" max="9" width="16" customWidth="true"/>
+    <col min="10" max="10" width="16" customWidth="true"/>
+    <col min="11" max="11" width="9.42578125" customWidth="true"/>
+    <col min="12" max="12" width="14.5703125" customWidth="true"/>
     <col min="13" max="13" width="8.7109375" customWidth="true"/>
     <col min="14" max="14" width="10.7109375" customWidth="true"/>
-    <col min="15" max="15" width="18.046875" customWidth="true"/>
-    <col min="16" max="16" width="18.046875" customWidth="true"/>
-    <col min="17" max="17" width="12.7109375" customWidth="true"/>
-    <col min="18" max="18" width="14.15625" customWidth="true"/>
-    <col min="19" max="19" width="14.26953125" customWidth="true"/>
-    <col min="20" max="20" width="12.046875" customWidth="true"/>
-    <col min="21" max="21" width="14.046875" customWidth="true"/>
-    <col min="22" max="22" width="13.48828125" customWidth="true"/>
-    <col min="23" max="23" width="13.82421875" customWidth="true"/>
-    <col min="24" max="24" width="11.93359375" customWidth="true"/>
-    <col min="25" max="25" width="11.37890625" customWidth="true"/>
-    <col min="26" max="26" width="11.26953125" customWidth="true"/>
+    <col min="15" max="15" width="17.42578125" customWidth="true"/>
+    <col min="16" max="16" width="17.42578125" customWidth="true"/>
+    <col min="17" max="17" width="11.85546875" customWidth="true"/>
+    <col min="18" max="18" width="13.5703125" customWidth="true"/>
+    <col min="19" max="19" width="13.42578125" customWidth="true"/>
+    <col min="20" max="20" width="11" customWidth="true"/>
+    <col min="21" max="21" width="13.28515625" customWidth="true"/>
+    <col min="22" max="22" width="13" customWidth="true"/>
+    <col min="23" max="23" width="13.140625" customWidth="true"/>
+    <col min="24" max="24" width="11" customWidth="true"/>
+    <col min="25" max="25" width="10.7109375" customWidth="true"/>
+    <col min="26" max="26" width="10.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3332</v>
+        <v>3570</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3333</v>
+        <v>3571</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>3334</v>
+        <v>3572</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3335</v>
+        <v>3573</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3336</v>
+        <v>3574</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>3337</v>
+        <v>3575</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>3338</v>
+        <v>3576</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>3339</v>
+        <v>3577</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>3370</v>
+        <v>3608</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>3376</v>
+        <v>3614</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>3382</v>
+        <v>3620</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>3388</v>
+        <v>3626</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>3389</v>
+        <v>3627</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>3390</v>
+        <v>3628</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>3391</v>
+        <v>3629</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>3392</v>
+        <v>3630</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>3393</v>
+        <v>3631</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>3394</v>
+        <v>3632</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>3395</v>
+        <v>3633</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>3396</v>
+        <v>3634</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>3397</v>
+        <v>3635</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>3398</v>
+        <v>3636</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>3399</v>
+        <v>3637</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>3400</v>
+        <v>3638</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>3401</v>
+        <v>3639</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>3402</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="2">
@@ -10904,16 +11618,16 @@
         <v>0.83540899999999996</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>3340</v>
+        <v>3578</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>3371</v>
+        <v>3609</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>3377</v>
+        <v>3615</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>3383</v>
+        <v>3621</v>
       </c>
       <c r="L2" s="0">
         <v>0.24099999999999999</v>
@@ -10982,16 +11696,16 @@
         <v>0.85426199999999997</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>3341</v>
+        <v>3579</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>3371</v>
+        <v>3609</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>3377</v>
+        <v>3615</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>3383</v>
+        <v>3621</v>
       </c>
       <c r="L3" s="0">
         <v>0.255</v>
@@ -11060,16 +11774,16 @@
         <v>0.18979499999999999</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>3342</v>
+        <v>3580</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>3371</v>
+        <v>3609</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>3377</v>
+        <v>3615</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>3383</v>
+        <v>3621</v>
       </c>
       <c r="L4" s="0">
         <v>0.27700000000000002</v>
@@ -11138,16 +11852,16 @@
         <v>0.853657</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>3343</v>
+        <v>3581</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>3371</v>
+        <v>3609</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>3377</v>
+        <v>3615</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>3383</v>
+        <v>3621</v>
       </c>
       <c r="L5" s="0">
         <v>0.23799999999999999</v>
@@ -11216,16 +11930,16 @@
         <v>0.83832499999999999</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>3344</v>
+        <v>3582</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>3372</v>
+        <v>3610</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>3378</v>
+        <v>3616</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>3384</v>
+        <v>3622</v>
       </c>
       <c r="L6" s="0">
         <v>0.318</v>
@@ -11294,16 +12008,16 @@
         <v>0.85134100000000001</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>3345</v>
+        <v>3583</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>3372</v>
+        <v>3610</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>3378</v>
+        <v>3616</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>3384</v>
+        <v>3622</v>
       </c>
       <c r="L7" s="0">
         <v>0.316</v>
@@ -11372,16 +12086,16 @@
         <v>0.85117100000000001</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>3346</v>
+        <v>3584</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>3372</v>
+        <v>3610</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>3378</v>
+        <v>3616</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>3384</v>
+        <v>3622</v>
       </c>
       <c r="L8" s="0">
         <v>0.307</v>
@@ -11450,16 +12164,16 @@
         <v>0.3821</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>3347</v>
+        <v>3585</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>3372</v>
+        <v>3610</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>3378</v>
+        <v>3616</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>3384</v>
+        <v>3622</v>
       </c>
       <c r="L9" s="0">
         <v>0.23499999999999999</v>
@@ -11528,16 +12242,16 @@
         <v>0.85105299999999995</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>3348</v>
+        <v>3586</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>3372</v>
+        <v>3610</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>3378</v>
+        <v>3616</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>3384</v>
+        <v>3622</v>
       </c>
       <c r="L10" s="0">
         <v>0.27300000000000002</v>
@@ -11606,16 +12320,16 @@
         <v>0.12221799999999999</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>3349</v>
+        <v>3587</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>3372</v>
+        <v>3610</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>3378</v>
+        <v>3616</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>3384</v>
+        <v>3622</v>
       </c>
       <c r="L11" s="0">
         <v>0.35799999999999998</v>
@@ -11684,16 +12398,16 @@
         <v>0.85252600000000001</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>3350</v>
+        <v>3588</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>3372</v>
+        <v>3610</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>3378</v>
+        <v>3616</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>3384</v>
+        <v>3622</v>
       </c>
       <c r="L12" s="0">
         <v>0.29999999999999999</v>
@@ -11762,16 +12476,16 @@
         <v>0.838009</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>3351</v>
+        <v>3589</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>3373</v>
+        <v>3611</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>3379</v>
+        <v>3617</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>3385</v>
+        <v>3623</v>
       </c>
       <c r="L13" s="0">
         <v>1.905</v>
@@ -11840,16 +12554,16 @@
         <v>0.85328300000000001</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>3352</v>
+        <v>3590</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>3373</v>
+        <v>3611</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>3379</v>
+        <v>3617</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>3385</v>
+        <v>3623</v>
       </c>
       <c r="L14" s="0">
         <v>1.9019999999999999</v>
@@ -11918,16 +12632,16 @@
         <v>0.283607</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>3353</v>
+        <v>3591</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>3373</v>
+        <v>3611</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>3379</v>
+        <v>3617</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>3385</v>
+        <v>3623</v>
       </c>
       <c r="L15" s="0">
         <v>1.9039999999999999</v>
@@ -11996,16 +12710,16 @@
         <v>0.22397400000000001</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>3354</v>
+        <v>3592</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>3373</v>
+        <v>3611</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>3379</v>
+        <v>3617</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>3385</v>
+        <v>3623</v>
       </c>
       <c r="L16" s="0">
         <v>1.9079999999999999</v>
@@ -12074,16 +12788,16 @@
         <v>0.84850400000000004</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>3355</v>
+        <v>3593</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>3373</v>
+        <v>3611</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>3379</v>
+        <v>3617</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>3385</v>
+        <v>3623</v>
       </c>
       <c r="L17" s="0">
         <v>1.883</v>
@@ -12152,16 +12866,16 @@
         <v>0.186498</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>3356</v>
+        <v>3594</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>3373</v>
+        <v>3611</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>3379</v>
+        <v>3617</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>3385</v>
+        <v>3623</v>
       </c>
       <c r="L18" s="0">
         <v>1.9370000000000001</v>
@@ -12230,16 +12944,16 @@
         <v>0.85425399999999996</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>3357</v>
+        <v>3595</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>3373</v>
+        <v>3611</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>3379</v>
+        <v>3617</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>3385</v>
+        <v>3623</v>
       </c>
       <c r="L19" s="0">
         <v>1.907</v>
@@ -12308,16 +13022,16 @@
         <v>0.83034399999999997</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>3358</v>
+        <v>3596</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>3374</v>
+        <v>3612</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>3380</v>
+        <v>3618</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>3386</v>
+        <v>3624</v>
       </c>
       <c r="L20" s="0">
         <v>0.23999999999999999</v>
@@ -12386,16 +13100,16 @@
         <v>0.84723300000000001</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>3359</v>
+        <v>3597</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>3374</v>
+        <v>3612</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>3380</v>
+        <v>3618</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>3386</v>
+        <v>3624</v>
       </c>
       <c r="L21" s="0">
         <v>0.23699999999999999</v>
@@ -12464,16 +13178,16 @@
         <v>0.68953799999999998</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>3360</v>
+        <v>3598</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>3374</v>
+        <v>3612</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>3380</v>
+        <v>3618</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>3386</v>
+        <v>3624</v>
       </c>
       <c r="L22" s="0">
         <v>0.247</v>
@@ -12542,16 +13256,16 @@
         <v>0.83900200000000003</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>3361</v>
+        <v>3599</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>3375</v>
+        <v>3613</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>3381</v>
+        <v>3619</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>3387</v>
+        <v>3625</v>
       </c>
       <c r="L23" s="0">
         <v>0.53800000000000003</v>
@@ -12620,16 +13334,16 @@
         <v>0.85289300000000001</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>3362</v>
+        <v>3600</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>3375</v>
+        <v>3613</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>3381</v>
+        <v>3619</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>3387</v>
+        <v>3625</v>
       </c>
       <c r="L24" s="0">
         <v>0.53400000000000003</v>
@@ -12698,16 +13412,16 @@
         <v>0.84944699999999995</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>3363</v>
+        <v>3601</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>3375</v>
+        <v>3613</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>3381</v>
+        <v>3619</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>3387</v>
+        <v>3625</v>
       </c>
       <c r="L25" s="0">
         <v>0.53500000000000003</v>
@@ -12776,16 +13490,16 @@
         <v>0.84583299999999995</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>3364</v>
+        <v>3602</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>3375</v>
+        <v>3613</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>3381</v>
+        <v>3619</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>3387</v>
+        <v>3625</v>
       </c>
       <c r="L26" s="0">
         <v>0.442</v>
@@ -12854,16 +13568,16 @@
         <v>0.84981300000000004</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>3365</v>
+        <v>3603</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>3375</v>
+        <v>3613</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>3381</v>
+        <v>3619</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>3387</v>
+        <v>3625</v>
       </c>
       <c r="L27" s="0">
         <v>0.47099999999999997</v>
@@ -12932,16 +13646,16 @@
         <v>0.647953</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>3366</v>
+        <v>3604</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>3375</v>
+        <v>3613</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>3381</v>
+        <v>3619</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>3387</v>
+        <v>3625</v>
       </c>
       <c r="L28" s="0">
         <v>0.46100000000000002</v>
@@ -13010,16 +13724,16 @@
         <v>0.467034</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>3367</v>
+        <v>3605</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>3375</v>
+        <v>3613</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>3381</v>
+        <v>3619</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>3387</v>
+        <v>3625</v>
       </c>
       <c r="L29" s="0">
         <v>0.45600000000000002</v>
@@ -13088,16 +13802,16 @@
         <v>0.85036</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>3368</v>
+        <v>3606</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>3375</v>
+        <v>3613</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>3381</v>
+        <v>3619</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>3387</v>
+        <v>3625</v>
       </c>
       <c r="L30" s="0">
         <v>0.53100000000000003</v>
@@ -13166,16 +13880,16 @@
         <v>0.84980599999999995</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>3369</v>
+        <v>3607</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>3375</v>
+        <v>3613</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>3381</v>
+        <v>3619</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>3387</v>
+        <v>3625</v>
       </c>
       <c r="L31" s="0">
         <v>0.53800000000000003</v>
@@ -13232,22 +13946,22 @@
   <dimension ref="A1:Z31"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.046875" customWidth="true"/>
-    <col min="2" max="2" width="11.93359375" customWidth="true"/>
-    <col min="3" max="3" width="7.37890625" customWidth="true"/>
-    <col min="4" max="4" width="14.046875" customWidth="true"/>
+    <col min="1" max="1" width="5.5703125" customWidth="true"/>
+    <col min="2" max="2" width="12.85546875" customWidth="true"/>
+    <col min="3" max="3" width="8" customWidth="true"/>
+    <col min="4" max="4" width="15.140625" customWidth="true"/>
     <col min="5" max="5" width="10.7109375" customWidth="true"/>
-    <col min="6" max="6" width="6.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.37890625" customWidth="true"/>
-    <col min="8" max="8" width="15.48828125" customWidth="true"/>
-    <col min="9" max="9" width="14.82421875" customWidth="true"/>
-    <col min="10" max="10" width="14.82421875" customWidth="true"/>
-    <col min="11" max="11" width="9.15625" customWidth="true"/>
-    <col min="12" max="12" width="13.37890625" customWidth="true"/>
+    <col min="6" max="6" width="7" customWidth="true"/>
+    <col min="7" max="7" width="11.28515625" customWidth="true"/>
+    <col min="8" max="8" width="16.28515625" customWidth="true"/>
+    <col min="9" max="9" width="16" customWidth="true"/>
+    <col min="10" max="10" width="16" customWidth="true"/>
+    <col min="11" max="11" width="9.42578125" customWidth="true"/>
+    <col min="12" max="12" width="14.5703125" customWidth="true"/>
     <col min="13" max="13" width="8.7109375" customWidth="true"/>
     <col min="14" max="14" width="10.7109375" customWidth="true"/>
-    <col min="15" max="15" width="18.046875" customWidth="true"/>
-    <col min="16" max="16" width="18.046875" customWidth="true"/>
+    <col min="15" max="15" width="17.42578125" customWidth="true"/>
+    <col min="16" max="16" width="17.42578125" customWidth="true"/>
     <col min="17" max="17" width="15.7109375" customWidth="true"/>
     <col min="18" max="18" width="15.7109375" customWidth="true"/>
     <col min="19" max="19" width="14.7109375" customWidth="true"/>
@@ -13262,82 +13976,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3403</v>
+        <v>3641</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3404</v>
+        <v>3642</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>3405</v>
+        <v>3643</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3406</v>
+        <v>3644</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3407</v>
+        <v>3645</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>3408</v>
+        <v>3646</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>3409</v>
+        <v>3647</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>3410</v>
+        <v>3648</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>3441</v>
+        <v>3679</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>3447</v>
+        <v>3685</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>3453</v>
+        <v>3691</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>3459</v>
+        <v>3697</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>3460</v>
+        <v>3698</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>3461</v>
+        <v>3699</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>3462</v>
+        <v>3700</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>3463</v>
+        <v>3701</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>3464</v>
+        <v>3702</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>3465</v>
+        <v>3703</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>3466</v>
+        <v>3704</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>3467</v>
+        <v>3705</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>3468</v>
+        <v>3706</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>3469</v>
+        <v>3707</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>3470</v>
+        <v>3708</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>3471</v>
+        <v>3709</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>3472</v>
+        <v>3710</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>3473</v>
+        <v>3711</v>
       </c>
     </row>
     <row r="2">
@@ -13361,16 +14075,16 @@
         <v>0.83540899999999996</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>3411</v>
+        <v>3649</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>3442</v>
+        <v>3680</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>3448</v>
+        <v>3686</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>3454</v>
+        <v>3692</v>
       </c>
       <c r="L2" s="0">
         <v>0.24099999999999999</v>
@@ -13439,16 +14153,16 @@
         <v>0.85426199999999997</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>3412</v>
+        <v>3650</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>3442</v>
+        <v>3680</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>3448</v>
+        <v>3686</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>3454</v>
+        <v>3692</v>
       </c>
       <c r="L3" s="0">
         <v>0.255</v>
@@ -13517,16 +14231,16 @@
         <v>0.18979499999999999</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>3413</v>
+        <v>3651</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>3442</v>
+        <v>3680</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>3448</v>
+        <v>3686</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>3454</v>
+        <v>3692</v>
       </c>
       <c r="L4" s="0">
         <v>0.27700000000000002</v>
@@ -13595,16 +14309,16 @@
         <v>0.853657</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>3414</v>
+        <v>3652</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>3442</v>
+        <v>3680</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>3448</v>
+        <v>3686</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>3454</v>
+        <v>3692</v>
       </c>
       <c r="L5" s="0">
         <v>0.23799999999999999</v>
@@ -13673,16 +14387,16 @@
         <v>0.83832499999999999</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>3415</v>
+        <v>3653</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>3443</v>
+        <v>3681</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>3449</v>
+        <v>3687</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>3455</v>
+        <v>3693</v>
       </c>
       <c r="L6" s="0">
         <v>0.318</v>
@@ -13751,16 +14465,16 @@
         <v>0.85134100000000001</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>3416</v>
+        <v>3654</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>3443</v>
+        <v>3681</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>3449</v>
+        <v>3687</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>3455</v>
+        <v>3693</v>
       </c>
       <c r="L7" s="0">
         <v>0.316</v>
@@ -13829,16 +14543,16 @@
         <v>0.85117100000000001</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>3417</v>
+        <v>3655</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>3443</v>
+        <v>3681</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>3449</v>
+        <v>3687</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>3455</v>
+        <v>3693</v>
       </c>
       <c r="L8" s="0">
         <v>0.307</v>
@@ -13907,16 +14621,16 @@
         <v>0.3821</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>3418</v>
+        <v>3656</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>3443</v>
+        <v>3681</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>3449</v>
+        <v>3687</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>3455</v>
+        <v>3693</v>
       </c>
       <c r="L9" s="0">
         <v>0.23499999999999999</v>
@@ -13985,16 +14699,16 @@
         <v>0.85105299999999995</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>3419</v>
+        <v>3657</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>3443</v>
+        <v>3681</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>3449</v>
+        <v>3687</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>3455</v>
+        <v>3693</v>
       </c>
       <c r="L10" s="0">
         <v>0.27300000000000002</v>
@@ -14063,16 +14777,16 @@
         <v>0.12221799999999999</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>3420</v>
+        <v>3658</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>3443</v>
+        <v>3681</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>3449</v>
+        <v>3687</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>3455</v>
+        <v>3693</v>
       </c>
       <c r="L11" s="0">
         <v>0.35799999999999998</v>
@@ -14141,16 +14855,16 @@
         <v>0.85252600000000001</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>3421</v>
+        <v>3659</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>3443</v>
+        <v>3681</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>3449</v>
+        <v>3687</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>3455</v>
+        <v>3693</v>
       </c>
       <c r="L12" s="0">
         <v>0.29999999999999999</v>
@@ -14219,16 +14933,16 @@
         <v>0.838009</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>3422</v>
+        <v>3660</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>3444</v>
+        <v>3682</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>3450</v>
+        <v>3688</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>3456</v>
+        <v>3694</v>
       </c>
       <c r="L13" s="0">
         <v>1.905</v>
@@ -14297,16 +15011,16 @@
         <v>0.85328300000000001</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>3423</v>
+        <v>3661</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>3444</v>
+        <v>3682</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>3450</v>
+        <v>3688</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>3456</v>
+        <v>3694</v>
       </c>
       <c r="L14" s="0">
         <v>1.9019999999999999</v>
@@ -14375,16 +15089,16 @@
         <v>0.283607</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>3424</v>
+        <v>3662</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>3444</v>
+        <v>3682</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>3450</v>
+        <v>3688</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>3456</v>
+        <v>3694</v>
       </c>
       <c r="L15" s="0">
         <v>1.9039999999999999</v>
@@ -14453,16 +15167,16 @@
         <v>0.22397400000000001</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>3425</v>
+        <v>3663</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>3444</v>
+        <v>3682</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>3450</v>
+        <v>3688</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>3456</v>
+        <v>3694</v>
       </c>
       <c r="L16" s="0">
         <v>1.9079999999999999</v>
@@ -14531,16 +15245,16 @@
         <v>0.84850400000000004</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>3426</v>
+        <v>3664</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>3444</v>
+        <v>3682</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>3450</v>
+        <v>3688</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>3456</v>
+        <v>3694</v>
       </c>
       <c r="L17" s="0">
         <v>1.883</v>
@@ -14609,16 +15323,16 @@
         <v>0.186498</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>3427</v>
+        <v>3665</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>3444</v>
+        <v>3682</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>3450</v>
+        <v>3688</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>3456</v>
+        <v>3694</v>
       </c>
       <c r="L18" s="0">
         <v>1.9370000000000001</v>
@@ -14687,16 +15401,16 @@
         <v>0.85425399999999996</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>3428</v>
+        <v>3666</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>3444</v>
+        <v>3682</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>3450</v>
+        <v>3688</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>3456</v>
+        <v>3694</v>
       </c>
       <c r="L19" s="0">
         <v>1.907</v>
@@ -14765,16 +15479,16 @@
         <v>0.83034399999999997</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>3429</v>
+        <v>3667</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>3445</v>
+        <v>3683</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>3451</v>
+        <v>3689</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>3457</v>
+        <v>3695</v>
       </c>
       <c r="L20" s="0">
         <v>0.23999999999999999</v>
@@ -14843,16 +15557,16 @@
         <v>0.84723300000000001</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>3430</v>
+        <v>3668</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>3445</v>
+        <v>3683</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>3451</v>
+        <v>3689</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>3457</v>
+        <v>3695</v>
       </c>
       <c r="L21" s="0">
         <v>0.23699999999999999</v>
@@ -14921,16 +15635,16 @@
         <v>0.68953799999999998</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>3431</v>
+        <v>3669</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>3445</v>
+        <v>3683</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>3451</v>
+        <v>3689</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>3457</v>
+        <v>3695</v>
       </c>
       <c r="L22" s="0">
         <v>0.247</v>
@@ -14999,16 +15713,16 @@
         <v>0.83900200000000003</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>3432</v>
+        <v>3670</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>3446</v>
+        <v>3684</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>3452</v>
+        <v>3690</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>3458</v>
+        <v>3696</v>
       </c>
       <c r="L23" s="0">
         <v>0.53800000000000003</v>
@@ -15077,16 +15791,16 @@
         <v>0.85289300000000001</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>3433</v>
+        <v>3671</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>3446</v>
+        <v>3684</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>3452</v>
+        <v>3690</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>3458</v>
+        <v>3696</v>
       </c>
       <c r="L24" s="0">
         <v>0.53400000000000003</v>
@@ -15155,16 +15869,16 @@
         <v>0.84944699999999995</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>3434</v>
+        <v>3672</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>3446</v>
+        <v>3684</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>3452</v>
+        <v>3690</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>3458</v>
+        <v>3696</v>
       </c>
       <c r="L25" s="0">
         <v>0.53500000000000003</v>
@@ -15233,16 +15947,16 @@
         <v>0.84583299999999995</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>3435</v>
+        <v>3673</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>3446</v>
+        <v>3684</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>3452</v>
+        <v>3690</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>3458</v>
+        <v>3696</v>
       </c>
       <c r="L26" s="0">
         <v>0.442</v>
@@ -15311,16 +16025,16 @@
         <v>0.84981300000000004</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>3436</v>
+        <v>3674</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>3446</v>
+        <v>3684</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>3452</v>
+        <v>3690</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>3458</v>
+        <v>3696</v>
       </c>
       <c r="L27" s="0">
         <v>0.47099999999999997</v>
@@ -15389,16 +16103,16 @@
         <v>0.647953</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>3437</v>
+        <v>3675</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>3446</v>
+        <v>3684</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>3452</v>
+        <v>3690</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>3458</v>
+        <v>3696</v>
       </c>
       <c r="L28" s="0">
         <v>0.46100000000000002</v>
@@ -15467,16 +16181,16 @@
         <v>0.467034</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>3438</v>
+        <v>3676</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>3446</v>
+        <v>3684</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>3452</v>
+        <v>3690</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>3458</v>
+        <v>3696</v>
       </c>
       <c r="L29" s="0">
         <v>0.45600000000000002</v>
@@ -15545,16 +16259,16 @@
         <v>0.85036</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>3439</v>
+        <v>3677</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>3446</v>
+        <v>3684</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>3452</v>
+        <v>3690</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>3458</v>
+        <v>3696</v>
       </c>
       <c r="L30" s="0">
         <v>0.53100000000000003</v>
@@ -15623,16 +16337,16 @@
         <v>0.84980599999999995</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>3440</v>
+        <v>3678</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>3446</v>
+        <v>3684</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>3452</v>
+        <v>3690</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>3458</v>
+        <v>3696</v>
       </c>
       <c r="L31" s="0">
         <v>0.53800000000000003</v>
@@ -15689,112 +16403,112 @@
   <dimension ref="A1:Z31"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.046875" customWidth="true"/>
-    <col min="2" max="2" width="11.93359375" customWidth="true"/>
-    <col min="3" max="3" width="7.37890625" customWidth="true"/>
-    <col min="4" max="4" width="14.046875" customWidth="true"/>
+    <col min="1" max="1" width="5.5703125" customWidth="true"/>
+    <col min="2" max="2" width="12.85546875" customWidth="true"/>
+    <col min="3" max="3" width="8" customWidth="true"/>
+    <col min="4" max="4" width="15.140625" customWidth="true"/>
     <col min="5" max="5" width="10.7109375" customWidth="true"/>
-    <col min="6" max="6" width="6.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.37890625" customWidth="true"/>
-    <col min="8" max="8" width="15.48828125" customWidth="true"/>
-    <col min="9" max="9" width="14.82421875" customWidth="true"/>
-    <col min="10" max="10" width="14.82421875" customWidth="true"/>
-    <col min="11" max="11" width="9.15625" customWidth="true"/>
-    <col min="12" max="12" width="13.37890625" customWidth="true"/>
+    <col min="6" max="6" width="7" customWidth="true"/>
+    <col min="7" max="7" width="11.28515625" customWidth="true"/>
+    <col min="8" max="8" width="16.28515625" customWidth="true"/>
+    <col min="9" max="9" width="16" customWidth="true"/>
+    <col min="10" max="10" width="16" customWidth="true"/>
+    <col min="11" max="11" width="9.42578125" customWidth="true"/>
+    <col min="12" max="12" width="14.5703125" customWidth="true"/>
     <col min="13" max="13" width="8.7109375" customWidth="true"/>
     <col min="14" max="14" width="10.7109375" customWidth="true"/>
-    <col min="15" max="15" width="18.046875" customWidth="true"/>
-    <col min="16" max="16" width="18.046875" customWidth="true"/>
-    <col min="17" max="17" width="12.7109375" customWidth="true"/>
-    <col min="18" max="18" width="14.15625" customWidth="true"/>
-    <col min="19" max="19" width="14.26953125" customWidth="true"/>
-    <col min="20" max="20" width="12.046875" customWidth="true"/>
-    <col min="21" max="21" width="14.046875" customWidth="true"/>
-    <col min="22" max="22" width="13.48828125" customWidth="true"/>
-    <col min="23" max="23" width="13.82421875" customWidth="true"/>
-    <col min="24" max="24" width="11.93359375" customWidth="true"/>
+    <col min="15" max="15" width="17.42578125" customWidth="true"/>
+    <col min="16" max="16" width="17.42578125" customWidth="true"/>
+    <col min="17" max="17" width="11.85546875" customWidth="true"/>
+    <col min="18" max="18" width="13.5703125" customWidth="true"/>
+    <col min="19" max="19" width="13.42578125" customWidth="true"/>
+    <col min="20" max="20" width="11.7109375" customWidth="true"/>
+    <col min="21" max="21" width="13.28515625" customWidth="true"/>
+    <col min="22" max="22" width="13" customWidth="true"/>
+    <col min="23" max="23" width="13.140625" customWidth="true"/>
+    <col min="24" max="24" width="11.7109375" customWidth="true"/>
     <col min="25" max="25" width="11.7109375" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3474</v>
+        <v>3712</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3475</v>
+        <v>3713</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>3476</v>
+        <v>3714</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3477</v>
+        <v>3715</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3478</v>
+        <v>3716</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>3479</v>
+        <v>3717</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>3480</v>
+        <v>3718</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>3481</v>
+        <v>3719</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>3512</v>
+        <v>3750</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>3518</v>
+        <v>3756</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>3524</v>
+        <v>3762</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>3530</v>
+        <v>3768</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>3531</v>
+        <v>3769</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>3532</v>
+        <v>3770</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>3533</v>
+        <v>3771</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>3534</v>
+        <v>3772</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>3535</v>
+        <v>3773</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>3536</v>
+        <v>3774</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>3537</v>
+        <v>3775</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>3538</v>
+        <v>3776</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>3539</v>
+        <v>3777</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>3540</v>
+        <v>3778</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>3541</v>
+        <v>3779</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>3542</v>
+        <v>3780</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>3543</v>
+        <v>3781</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>3544</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="2">
@@ -15818,16 +16532,16 @@
         <v>0.83540899999999996</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>3482</v>
+        <v>3720</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>3513</v>
+        <v>3751</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>3519</v>
+        <v>3757</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>3525</v>
+        <v>3763</v>
       </c>
       <c r="L2" s="0">
         <v>0.24099999999999999</v>
@@ -15896,16 +16610,16 @@
         <v>0.85426199999999997</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>3483</v>
+        <v>3721</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>3513</v>
+        <v>3751</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>3519</v>
+        <v>3757</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>3525</v>
+        <v>3763</v>
       </c>
       <c r="L3" s="0">
         <v>0.255</v>
@@ -15974,16 +16688,16 @@
         <v>0.18979499999999999</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>3484</v>
+        <v>3722</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>3513</v>
+        <v>3751</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>3519</v>
+        <v>3757</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>3525</v>
+        <v>3763</v>
       </c>
       <c r="L4" s="0">
         <v>0.27700000000000002</v>
@@ -16052,16 +16766,16 @@
         <v>0.853657</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>3485</v>
+        <v>3723</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>3513</v>
+        <v>3751</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>3519</v>
+        <v>3757</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>3525</v>
+        <v>3763</v>
       </c>
       <c r="L5" s="0">
         <v>0.23799999999999999</v>
@@ -16130,16 +16844,16 @@
         <v>0.83832499999999999</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>3486</v>
+        <v>3724</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>3514</v>
+        <v>3752</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>3520</v>
+        <v>3758</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>3526</v>
+        <v>3764</v>
       </c>
       <c r="L6" s="0">
         <v>0.318</v>
@@ -16208,16 +16922,16 @@
         <v>0.85134100000000001</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>3487</v>
+        <v>3725</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>3514</v>
+        <v>3752</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>3520</v>
+        <v>3758</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>3526</v>
+        <v>3764</v>
       </c>
       <c r="L7" s="0">
         <v>0.316</v>
@@ -16286,16 +17000,16 @@
         <v>0.85117100000000001</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>3488</v>
+        <v>3726</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>3514</v>
+        <v>3752</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>3520</v>
+        <v>3758</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>3526</v>
+        <v>3764</v>
       </c>
       <c r="L8" s="0">
         <v>0.307</v>
@@ -16364,16 +17078,16 @@
         <v>0.3821</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>3489</v>
+        <v>3727</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>3514</v>
+        <v>3752</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>3520</v>
+        <v>3758</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>3526</v>
+        <v>3764</v>
       </c>
       <c r="L9" s="0">
         <v>0.23499999999999999</v>
@@ -16442,16 +17156,16 @@
         <v>0.85105299999999995</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>3490</v>
+        <v>3728</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>3514</v>
+        <v>3752</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>3520</v>
+        <v>3758</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>3526</v>
+        <v>3764</v>
       </c>
       <c r="L10" s="0">
         <v>0.27300000000000002</v>
@@ -16520,16 +17234,16 @@
         <v>0.12221799999999999</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>3491</v>
+        <v>3729</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>3514</v>
+        <v>3752</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>3520</v>
+        <v>3758</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>3526</v>
+        <v>3764</v>
       </c>
       <c r="L11" s="0">
         <v>0.35799999999999998</v>
@@ -16598,16 +17312,16 @@
         <v>0.85252600000000001</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>3492</v>
+        <v>3730</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>3514</v>
+        <v>3752</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>3520</v>
+        <v>3758</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>3526</v>
+        <v>3764</v>
       </c>
       <c r="L12" s="0">
         <v>0.29999999999999999</v>
@@ -16676,16 +17390,16 @@
         <v>0.838009</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>3493</v>
+        <v>3731</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>3515</v>
+        <v>3753</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>3521</v>
+        <v>3759</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>3527</v>
+        <v>3765</v>
       </c>
       <c r="L13" s="0">
         <v>1.905</v>
@@ -16754,16 +17468,16 @@
         <v>0.85328300000000001</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>3494</v>
+        <v>3732</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>3515</v>
+        <v>3753</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>3521</v>
+        <v>3759</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>3527</v>
+        <v>3765</v>
       </c>
       <c r="L14" s="0">
         <v>1.9019999999999999</v>
@@ -16832,16 +17546,16 @@
         <v>0.283607</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>3495</v>
+        <v>3733</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>3515</v>
+        <v>3753</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>3521</v>
+        <v>3759</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>3527</v>
+        <v>3765</v>
       </c>
       <c r="L15" s="0">
         <v>1.9039999999999999</v>
@@ -16910,16 +17624,16 @@
         <v>0.22397400000000001</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>3496</v>
+        <v>3734</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>3515</v>
+        <v>3753</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>3521</v>
+        <v>3759</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>3527</v>
+        <v>3765</v>
       </c>
       <c r="L16" s="0">
         <v>1.9079999999999999</v>
@@ -16988,16 +17702,16 @@
         <v>0.84850400000000004</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>3497</v>
+        <v>3735</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>3515</v>
+        <v>3753</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>3521</v>
+        <v>3759</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>3527</v>
+        <v>3765</v>
       </c>
       <c r="L17" s="0">
         <v>1.883</v>
@@ -17066,16 +17780,16 @@
         <v>0.186498</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>3498</v>
+        <v>3736</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>3515</v>
+        <v>3753</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>3521</v>
+        <v>3759</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>3527</v>
+        <v>3765</v>
       </c>
       <c r="L18" s="0">
         <v>1.9370000000000001</v>
@@ -17144,16 +17858,16 @@
         <v>0.85425399999999996</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>3499</v>
+        <v>3737</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>3515</v>
+        <v>3753</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>3521</v>
+        <v>3759</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>3527</v>
+        <v>3765</v>
       </c>
       <c r="L19" s="0">
         <v>1.907</v>
@@ -17222,16 +17936,16 @@
         <v>0.83034399999999997</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>3500</v>
+        <v>3738</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>3516</v>
+        <v>3754</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>3522</v>
+        <v>3760</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>3528</v>
+        <v>3766</v>
       </c>
       <c r="L20" s="0">
         <v>0.23999999999999999</v>
@@ -17300,16 +18014,16 @@
         <v>0.84723300000000001</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>3501</v>
+        <v>3739</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>3516</v>
+        <v>3754</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>3522</v>
+        <v>3760</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>3528</v>
+        <v>3766</v>
       </c>
       <c r="L21" s="0">
         <v>0.23699999999999999</v>
@@ -17378,16 +18092,16 @@
         <v>0.68953799999999998</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>3502</v>
+        <v>3740</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>3516</v>
+        <v>3754</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>3522</v>
+        <v>3760</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>3528</v>
+        <v>3766</v>
       </c>
       <c r="L22" s="0">
         <v>0.247</v>
@@ -17456,16 +18170,16 @@
         <v>0.83900200000000003</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>3503</v>
+        <v>3741</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>3517</v>
+        <v>3755</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>3523</v>
+        <v>3761</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>3529</v>
+        <v>3767</v>
       </c>
       <c r="L23" s="0">
         <v>0.53800000000000003</v>
@@ -17534,16 +18248,16 @@
         <v>0.85289300000000001</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>3504</v>
+        <v>3742</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>3517</v>
+        <v>3755</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>3523</v>
+        <v>3761</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>3529</v>
+        <v>3767</v>
       </c>
       <c r="L24" s="0">
         <v>0.53400000000000003</v>
@@ -17612,16 +18326,16 @@
         <v>0.84944699999999995</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>3505</v>
+        <v>3743</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>3517</v>
+        <v>3755</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>3523</v>
+        <v>3761</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>3529</v>
+        <v>3767</v>
       </c>
       <c r="L25" s="0">
         <v>0.53500000000000003</v>
@@ -17690,16 +18404,16 @@
         <v>0.84583299999999995</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>3506</v>
+        <v>3744</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>3517</v>
+        <v>3755</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>3523</v>
+        <v>3761</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>3529</v>
+        <v>3767</v>
       </c>
       <c r="L26" s="0">
         <v>0.442</v>
@@ -17768,16 +18482,16 @@
         <v>0.84981300000000004</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>3507</v>
+        <v>3745</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>3517</v>
+        <v>3755</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>3523</v>
+        <v>3761</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>3529</v>
+        <v>3767</v>
       </c>
       <c r="L27" s="0">
         <v>0.47099999999999997</v>
@@ -17846,16 +18560,16 @@
         <v>0.647953</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>3508</v>
+        <v>3746</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>3517</v>
+        <v>3755</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>3523</v>
+        <v>3761</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>3529</v>
+        <v>3767</v>
       </c>
       <c r="L28" s="0">
         <v>0.46100000000000002</v>
@@ -17924,16 +18638,16 @@
         <v>0.467034</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>3509</v>
+        <v>3747</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>3517</v>
+        <v>3755</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>3523</v>
+        <v>3761</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>3529</v>
+        <v>3767</v>
       </c>
       <c r="L29" s="0">
         <v>0.45600000000000002</v>
@@ -18002,16 +18716,16 @@
         <v>0.85036</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>3510</v>
+        <v>3748</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>3517</v>
+        <v>3755</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>3523</v>
+        <v>3761</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>3529</v>
+        <v>3767</v>
       </c>
       <c r="L30" s="0">
         <v>0.53100000000000003</v>
@@ -18080,16 +18794,16 @@
         <v>0.84980599999999995</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>3511</v>
+        <v>3749</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>3517</v>
+        <v>3755</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>3523</v>
+        <v>3761</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>3529</v>
+        <v>3767</v>
       </c>
       <c r="L31" s="0">
         <v>0.53800000000000003</v>
@@ -18146,68 +18860,68 @@
   <dimension ref="A1:O6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.93359375" customWidth="true"/>
-    <col min="2" max="2" width="14.82421875" customWidth="true"/>
-    <col min="3" max="3" width="9.15625" customWidth="true"/>
-    <col min="4" max="4" width="18.046875" customWidth="true"/>
-    <col min="5" max="5" width="18.046875" customWidth="true"/>
-    <col min="6" max="6" width="12.7109375" customWidth="true"/>
-    <col min="7" max="7" width="14.15625" customWidth="true"/>
-    <col min="8" max="8" width="14.26953125" customWidth="true"/>
-    <col min="9" max="9" width="12.046875" customWidth="true"/>
-    <col min="10" max="10" width="14.046875" customWidth="true"/>
-    <col min="11" max="11" width="13.48828125" customWidth="true"/>
-    <col min="12" max="12" width="13.82421875" customWidth="true"/>
-    <col min="13" max="13" width="11.93359375" customWidth="true"/>
+    <col min="1" max="1" width="3" customWidth="true"/>
+    <col min="2" max="2" width="16" customWidth="true"/>
+    <col min="3" max="3" width="9.42578125" customWidth="true"/>
+    <col min="4" max="4" width="17.42578125" customWidth="true"/>
+    <col min="5" max="5" width="17.42578125" customWidth="true"/>
+    <col min="6" max="6" width="11.85546875" customWidth="true"/>
+    <col min="7" max="7" width="13.5703125" customWidth="true"/>
+    <col min="8" max="8" width="13.42578125" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="13.28515625" customWidth="true"/>
+    <col min="11" max="11" width="13" customWidth="true"/>
+    <col min="12" max="12" width="13.140625" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
     <col min="14" max="14" width="11.7109375" customWidth="true"/>
     <col min="15" max="15" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3545</v>
+        <v>3783</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3546</v>
+        <v>3784</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>3552</v>
+        <v>3790</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3558</v>
+        <v>3796</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3559</v>
+        <v>3797</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>3560</v>
+        <v>3798</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>3561</v>
+        <v>3799</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>3562</v>
+        <v>3800</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>3563</v>
+        <v>3801</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>3564</v>
+        <v>3802</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>3565</v>
+        <v>3803</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>3566</v>
+        <v>3804</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>3567</v>
+        <v>3805</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>3568</v>
+        <v>3806</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>3569</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="2">
@@ -18215,10 +18929,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3547</v>
+        <v>3785</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3553</v>
+        <v>3791</v>
       </c>
       <c r="D2" s="0">
         <v>1684901.6025177478</v>
@@ -18262,10 +18976,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3548</v>
+        <v>3786</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>3554</v>
+        <v>3792</v>
       </c>
       <c r="D3" s="0">
         <v>5764054.9394992189</v>
@@ -18309,10 +19023,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3549</v>
+        <v>3787</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>3555</v>
+        <v>3793</v>
       </c>
       <c r="D4" s="0">
         <v>503666.63895644189</v>
@@ -18356,10 +19070,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>3550</v>
+        <v>3788</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>3556</v>
+        <v>3794</v>
       </c>
       <c r="D5" s="0">
         <v>2236003.2114379439</v>
@@ -18403,10 +19117,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>3551</v>
+        <v>3789</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>3557</v>
+        <v>3795</v>
       </c>
       <c r="D6" s="0">
         <v>2619583.3353016465</v>
